--- a/auction_data.xlsx
+++ b/auction_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="28">
   <si>
     <t xml:space="preserve">Participant</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Vipul</t>
+  </si>
+  <si>
+    <t>Ben Stokes</t>
+  </si>
+  <si>
+    <t>Rohit Sharma</t>
   </si>
 </sst>
 </file>
@@ -349,10 +355,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>10.0</v>
@@ -360,35 +366,35 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -523,7 +529,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>100.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/auction_data.xlsx
+++ b/auction_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="28">
   <si>
     <t xml:space="preserve">Participant</t>
   </si>
@@ -330,7 +330,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
@@ -351,50 +351,6 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="C5" t="n" s="0">
-        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -521,7 +477,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -529,7 +485,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>85.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/auction_data.xlsx
+++ b/auction_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bids" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t xml:space="preserve">Participant</t>
   </si>
@@ -33,48 +33,45 @@
     <t xml:space="preserve">Bid Amount</t>
   </si>
   <si>
+    <t xml:space="preserve">Player Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virat Kohli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batsman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jasprit Bumrah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Stokes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All-Rounder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohit Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participant Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aniket</t>
   </si>
   <si>
-    <t xml:space="preserve">Virat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virat Kohli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batsman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jasprit Bumrah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ben Stokes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All-Rounder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohit Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participant Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budget</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hiren</t>
   </si>
   <si>
@@ -84,28 +81,13 @@
     <t xml:space="preserve">Vipul</t>
   </si>
   <si>
-    <t>Virat Kohli</t>
+    <t>Rohit Sharma</t>
   </si>
   <si>
     <t>Aniket</t>
   </si>
   <si>
-    <t>Hiren</t>
-  </si>
-  <si>
-    <t>Jasprit Bumrah</t>
-  </si>
-  <si>
     <t>Anurag</t>
-  </si>
-  <si>
-    <t>Vipul</t>
-  </si>
-  <si>
-    <t>Ben Stokes</t>
-  </si>
-  <si>
-    <t>Rohit Sharma</t>
   </si>
 </sst>
 </file>
@@ -120,6 +102,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -141,11 +124,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,20 +175,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -330,7 +319,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
@@ -338,19 +327,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="10.19" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.89" collapsed="false" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="10.19" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="10.89" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C3" t="n" s="1">
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>
@@ -371,65 +382,65 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="4" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>600</v>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -450,49 +461,49 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="4" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>100.0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="4" t="n">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>100.0</v>
       </c>
     </row>
